--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_15.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -704,7 +704,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -713,19 +713,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W2" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>84.4730545048111</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>241.0142888776591</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036188</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>11.6958115186032</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1190,10 +1190,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,25 +1209,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>95.23425580603926</v>
+        <v>93.47363648169059</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,67 +1376,67 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F11" t="n">
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -1509,13 +1509,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X12" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1567,16 +1567,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1625,10 +1625,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1701,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,16 +1740,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>142.8486449092763</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1847,25 +1847,25 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>29.79900896488251</v>
+        <v>18.40882703545761</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>116.325098768111</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>158.2776881777391</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,73 +2318,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="I23" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>125.2132019625774</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>56.17030901074575</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2533,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="27">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>18.75086299546907</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>88.1269286037212</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,20 +2792,20 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2846,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>24.38096634370151</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>90.08131101346704</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2922,19 +2922,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,16 +3038,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>68.31015748716329</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3117,19 +3117,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.90505408325086</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,13 +3281,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>69.90197782146217</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,61 +3506,61 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3585,16 +3585,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>84.56713651463426</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>55.8709254735974</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3676,13 +3676,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3743,64 +3743,64 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>33.80371536444981</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,22 +3816,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>59.33709181570769</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>62.86349518004438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3986,19 +3986,19 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,19 +4019,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>212.285385643442</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,28 +4053,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>65.84699805791787</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>145.4467082856156</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4352,25 +4352,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>517.4848137278872</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>517.4848137278872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>279.0604900729671</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="E3" t="n">
         <v>19.28114311021272</v>
@@ -4410,19 +4410,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4598,19 +4598,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>677.6563304852987</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>528.7219208240474</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>369.484465818592</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4647,49 +4647,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>852.7947480059265</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W6" t="n">
-        <v>609.3459713618265</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X6" t="n">
-        <v>401.4944711562937</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y6" t="n">
-        <v>193.7341723913397</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4826,19 +4826,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>376.1934816808115</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U8" t="n">
-        <v>132.7447050367114</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W8" t="n">
         <v>19.28114311021272</v>
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>380.2300195200815</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C9" t="n">
-        <v>205.7769902389545</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="D9" t="n">
-        <v>109.5807722530562</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E9" t="n">
-        <v>109.5807722530562</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F9" t="n">
-        <v>109.5807722530562</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
         <v>109.5807722530562</v>
@@ -4884,19 +4884,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4911,22 +4911,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X9" t="n">
-        <v>756.2056553051034</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y9" t="n">
-        <v>548.4453565401495</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="10">
@@ -4978,16 +4978,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
         <v>19.28114311021272</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R11" t="n">
-        <v>812.6742080953335</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S11" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T11" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5124,13 +5124,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N12" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
         <v>964.0571555106362</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>500.6814290152826</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X12" t="n">
-        <v>227.0414418751666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5215,13 +5215,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5300,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>136.7812428759814</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5388,19 +5388,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>819.7655949962157</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>584.613486764473</v>
       </c>
       <c r="W15" t="n">
-        <v>720.6083788665362</v>
+        <v>341.164710120373</v>
       </c>
       <c r="X15" t="n">
-        <v>512.7568786610034</v>
+        <v>341.164710120373</v>
       </c>
       <c r="Y15" t="n">
-        <v>304.9965798960495</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="16">
@@ -5495,22 +5495,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>933.9571464551993</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="U18" t="n">
-        <v>705.7335281915883</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="V18" t="n">
-        <v>470.5814199598456</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="W18" t="n">
-        <v>227.1326433157456</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="19">
@@ -5704,10 +5704,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>231.8830517671884</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C20" t="n">
-        <v>231.8830517671884</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D20" t="n">
-        <v>231.8830517671884</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E20" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V20" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W20" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X20" t="n">
-        <v>718.7806050553886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y20" t="n">
-        <v>475.3318284112885</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>136.7812428759814</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>804.1807028058493</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>804.1807028058493</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>804.1807028058493</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>804.1807028058493</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="Y21" t="n">
-        <v>304.9965798960495</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="22">
@@ -5938,10 +5938,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>495.259035872464</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>738.7078125165641</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6078,13 +6078,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6099,19 +6099,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y24" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="C26" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="D26" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6236,40 +6236,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N26" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O26" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P26" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y26" t="n">
-        <v>718.7806050553886</v>
+        <v>749.6274730425127</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>306.9463781888485</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C27" t="n">
-        <v>306.9463781888485</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563266</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q27" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S27" t="n">
-        <v>945.1168898586473</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T27" t="n">
-        <v>742.9302952174132</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U27" t="n">
-        <v>514.7066769538023</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V27" t="n">
-        <v>514.7066769538023</v>
+        <v>500.6814290152824</v>
       </c>
       <c r="W27" t="n">
-        <v>514.7066769538023</v>
+        <v>257.2326523711824</v>
       </c>
       <c r="X27" t="n">
-        <v>514.7066769538023</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y27" t="n">
-        <v>306.9463781888485</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
@@ -6446,10 +6446,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6467,7 +6467,7 @@
         <v>122.2961490211351</v>
       </c>
       <c r="L29" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057936</v>
       </c>
       <c r="M29" t="n">
         <v>519.3476278686978</v>
@@ -6494,19 +6494,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>284.725395637266</v>
+        <v>43.90838184122435</v>
       </c>
       <c r="C30" t="n">
-        <v>110.272366356139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>110.272366356139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>110.272366356139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>110.272366356139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>110.272366356139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6570,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>660.701031422288</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W30" t="n">
-        <v>660.701031422288</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X30" t="n">
-        <v>660.701031422288</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="Y30" t="n">
-        <v>452.9407326573341</v>
+        <v>212.1237188612924</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6710,40 +6710,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>710.5167634983089</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>795.8418184905681</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C33" t="n">
-        <v>726.8416594126254</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D33" t="n">
-        <v>577.9072497513741</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E33" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6783,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>903.5469998709887</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>730.1296553216575</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>730.1296553216575</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="Y33" t="n">
-        <v>964.0571555106362</v>
+        <v>501.9060370580465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>893.4490971051189</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>691.2625024638849</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>463.038884200274</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="W36" t="n">
-        <v>485.4562706347935</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X36" t="n">
-        <v>277.6047704292607</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7172,7 +7172,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7205,19 +7205,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>638.2370107872948</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C39" t="n">
-        <v>463.7839815061678</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D39" t="n">
-        <v>463.7839815061678</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E39" t="n">
-        <v>304.5465265007123</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F39" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>806.4523478073629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>806.4523478073629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>806.4523478073629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>806.4523478073629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X39" t="n">
-        <v>806.4523478073629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y39" t="n">
-        <v>806.4523478073629</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
         <v>19.28114311021272</v>
@@ -7360,22 +7360,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C41" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D41" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E41" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G41" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7436,25 +7436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V41" t="n">
-        <v>720.6083788665362</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W41" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X41" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y41" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>377.9400125653411</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7521,19 +7521,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.7341723913397</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
@@ -7606,13 +7606,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>817.1412885554689</v>
+        <v>420.237879300003</v>
       </c>
       <c r="C45" t="n">
-        <v>817.1412885554689</v>
+        <v>245.784850018876</v>
       </c>
       <c r="D45" t="n">
-        <v>668.2068788942177</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E45" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7728,13 +7728,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
         <v>542.809531908403</v>
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>817.1412885554689</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>817.1412885554689</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U45" t="n">
-        <v>817.1412885554689</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V45" t="n">
-        <v>817.1412885554689</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W45" t="n">
-        <v>817.1412885554689</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X45" t="n">
-        <v>817.1412885554689</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y45" t="n">
-        <v>817.1412885554689</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7840,16 +7840,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,10 +8070,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,13 +8541,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8772,7 +8772,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
@@ -8781,7 +8781,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,7 +9015,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9258,7 +9258,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,16 +9726,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10431,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N33" t="n">
-        <v>349.0484638974528</v>
+        <v>186.8580120236954</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10905,13 +10905,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>382.1386950879875</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>186.8580120236956</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W2" t="n">
-        <v>338.0479125612334</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,16 +22623,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>73.17202595058984</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22674,25 +22674,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22799,10 +22799,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22838,7 +22838,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>86.73796959247585</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>384.4284425830174</v>
       </c>
     </row>
     <row r="6">
@@ -22863,25 +22863,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>161.0126874697125</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22908,10 +22908,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22920,16 +22920,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>122.6508037197627</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22939,7 +22939,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23066,7 +23066,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23078,10 +23078,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>215.4233321629012</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23097,25 +23097,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>52.2108097585995</v>
+        <v>53.97142908294816</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23151,7 +23151,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23163,10 +23163,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23218,19 +23218,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,19 +23264,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>148.0596218681136</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,13 +23300,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23358,7 +23358,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23397,13 +23397,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X12" t="n">
-        <v>175.8836868124217</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23455,16 +23455,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>313.921378732166</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23513,10 +23513,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>56.38340022020472</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23589,13 +23589,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,16 +23628,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>83.09273717169847</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23735,25 +23735,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23808,16 +23808,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23832,7 +23832,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,25 +23856,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>170.3657197299391</v>
+        <v>181.755901659364</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23944,13 +23944,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>378.6650540150651</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24014,10 +24014,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>148.0596218681135</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24032,10 +24032,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>56.38340022020472</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24096,7 +24096,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>13.40548292609873</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24111,7 +24111,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,13 +24206,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>135.0690668140378</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,10 +24221,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24257,7 +24257,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,13 +24285,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>47.49529702573832</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24339,10 +24339,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24421,10 +24421,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24455,13 +24455,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24488,7 +24488,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>148.0596218681135</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="27">
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24570,25 +24570,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>152.9323081083687</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>117.6460565997563</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24652,10 +24652,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,19 +24680,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24734,19 +24734,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>148.3275326446142</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24774,7 +24774,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>22.15413322302942</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24810,19 +24810,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24895,7 +24895,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,16 +24926,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810815</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24968,10 +24968,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>104.3983415011524</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25005,19 +25005,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,16 +25041,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>40.25278006939227</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25123,7 +25123,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="35">
@@ -25169,13 +25169,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>110.0962526177847</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,13 +25199,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25214,10 +25214,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25242,7 +25242,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>95.01151712483079</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>101.7811932823757</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25366,13 +25366,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,19 +25394,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25445,10 +25445,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25473,16 +25473,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>60.50207587874962</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>144.2938032212242</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25564,13 +25564,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>122.3993850387443</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25631,7 +25631,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25643,10 +25643,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25676,19 +25676,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>315.4372533529632</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,22 +25704,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>88.10797374893107</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,10 +25761,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>142.81920059726</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25804,7 +25804,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25874,19 +25874,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25907,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>130.418315862507</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25941,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>81.59806750672088</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,10 +25992,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>26.23646281822221</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26080,7 +26080,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>456941.8494611642</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611642</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611642</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611642</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="16">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4609.728394514095</v>
+        <v>-4609.728394514052</v>
       </c>
       <c r="C6" t="n">
-        <v>76159.70313703365</v>
+        <v>76159.70313703368</v>
       </c>
       <c r="D6" t="n">
-        <v>76159.70313703365</v>
+        <v>76159.70313703363</v>
       </c>
       <c r="E6" t="n">
         <v>109787.3031370336</v>
       </c>
       <c r="F6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="G6" t="n">
         <v>109787.3031370337</v>
@@ -26540,10 +26540,10 @@
         <v>109787.3031370336</v>
       </c>
       <c r="I6" t="n">
-        <v>109787.3031370337</v>
+        <v>109787.3031370336</v>
       </c>
       <c r="J6" t="n">
-        <v>46727.36053792742</v>
+        <v>46727.36053792744</v>
       </c>
       <c r="K6" t="n">
         <v>109787.3031370336</v>
@@ -26555,13 +26555,13 @@
         <v>109787.3031370337</v>
       </c>
       <c r="N6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="O6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="P6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
     </row>
   </sheetData>
@@ -26811,13 +26811,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="M4" t="n">
         <v>241.0142888776591</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,10 +34790,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,13 +35261,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
@@ -35501,7 +35501,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35978,7 +35978,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N33" t="n">
-        <v>217.7067518141195</v>
+        <v>55.51629994036207</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37625,13 +37625,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
